--- a/src/main/resources/deploy/type/deploy_long_type.xlsx
+++ b/src/main/resources/deploy/type/deploy_long_type.xlsx
@@ -165,12 +165,12 @@
       </c>
       <c r="B1" s="4" t="inlineStr">
         <is>
-          <t>COUNT</t>
+          <t>LONG_COUNT</t>
         </is>
       </c>
       <c r="C1" s="4" t="inlineStr">
         <is>
-          <t>COUNT</t>
+          <t>long_COUNT</t>
         </is>
       </c>
     </row>
